--- a/biology/Zoologie/Austrofundulus/Austrofundulus.xlsx
+++ b/biology/Zoologie/Austrofundulus/Austrofundulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrofundulus est un genre de poissons de la famille des Rivulidae.
 </t>
@@ -511,18 +523,54 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (5 mai 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (5 mai 2015) :
 Austrofundulus guajira Hrbek, Taphorn &amp; Thomerson, 2005
 Austrofundulus leohoignei Hrbek, Taphorn &amp; Thomerson, 2005
 Austrofundulus leoni Hrbek, Taphorn &amp; Thomerson, 2005
 Austrofundulus limnaeus Schultz, 1949
 Austrofundulus myersi Dahl, 1958
 Austrofundulus rupununi Hrbek, Taphorn &amp; Thomerson, 2005
-Austrofundulus transilis Myers, 1932
-Note
-Selon Catalogue of Life                                   (5 mai 2015)[3] :
+Austrofundulus transilis Myers, 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Austrofundulus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Austrofundulus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 mai 2015) :
 Austrofundulus guajira
 Austrofundulus leohoignei
 Austrofundulus leoni
@@ -530,10 +578,10 @@
 Austrofundulus myersi
 Austrofundulus rupununi
 Austrofundulus transilis
-Selon ITIS      (5 mai 2015)[1] :
+Selon ITIS      (5 mai 2015) :
 Austrofundulus limnaeus Schultz, 1949
 Austrofundulus transilis Myers, 1932
-Selon NCBI  (5 mai 2015)[4] :
+Selon NCBI  (5 mai 2015) :
 Austrofundulus guajira
 Austrofundulus leohoignei
 Austrofundulus leoni
